--- a/reportes/reporte_zona_61_Tesorería.xlsx
+++ b/reportes/reporte_zona_61_Tesorería.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Reporte de Novedades de Máquinas en Extracciones de Dinero - Zona 61</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Dinero Extraído</t>
   </si>
   <si>
-    <t>2024-10-18 15:09:14</t>
+    <t>2024-10-22 19:30:18</t>
   </si>
   <si>
     <t>422504</t>
-  </si>
-  <si>
-    <t>422505</t>
   </si>
   <si>
     <t>Total Extraído</t>
@@ -460,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
@@ -506,32 +503,18 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>332832</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>40000</v>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/reporte_zona_61_Tesorería.xlsx
+++ b/reportes/reporte_zona_61_Tesorería.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Reporte de Novedades de Máquinas en Extracciones de Dinero - Zona 61</t>
   </si>
@@ -28,10 +28,13 @@
     <t>Dinero Extraído</t>
   </si>
   <si>
-    <t>2024-10-22 19:30:18</t>
+    <t>2024-10-23 18:34:19</t>
   </si>
   <si>
     <t>422504</t>
+  </si>
+  <si>
+    <t>422505</t>
   </si>
   <si>
     <t>Total Extraído</t>
@@ -457,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
@@ -503,18 +506,32 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>332832</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>25000</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/reporte_zona_61_Tesorería.xlsx
+++ b/reportes/reporte_zona_61_Tesorería.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Reporte de Novedades de Máquinas en Extracciones de Dinero - Zona 61</t>
   </si>
@@ -28,19 +28,22 @@
     <t>Dinero Extraído</t>
   </si>
   <si>
-    <t>2024-10-23 18:34:19</t>
+    <t>332831</t>
   </si>
   <si>
     <t>422504</t>
   </si>
   <si>
-    <t>422505</t>
+    <t>25000.00</t>
   </si>
   <si>
     <t>Total Extraído</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>025000.00</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +116,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
@@ -493,45 +499,31 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="4">
+        <v>45590.18975694444</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>332831</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
-        <v>25000</v>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>332832</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
-        <v>40000</v>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/reporte_zona_61_Tesorería.xlsx
+++ b/reportes/reporte_zona_61_Tesorería.xlsx
@@ -34,22 +34,25 @@
     <t>422504</t>
   </si>
   <si>
-    <t>25000.00</t>
+    <t>605420</t>
+  </si>
+  <si>
+    <t>422506</t>
   </si>
   <si>
     <t>Total Extraído</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>025000.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -107,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,7 +127,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
@@ -500,7 +509,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45590.18975694444</v>
+        <v>45592.35196759259</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -508,22 +517,36 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45592.35196759259</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>56000</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>81000</v>
       </c>
     </row>
   </sheetData>
